--- a/VERİ_İNCELEME.xlsx
+++ b/VERİ_İNCELEME.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qwert\OneDrive\Masaüstü\PROJECT4_GITHUB\Team2Project-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87856B3A-E1F1-4796-8F9B-BD517D389F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3DA837-4CFE-419E-BF9B-61AC77A0B346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE9A150-39FC-4ECD-9811-5BE655C855DC}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1347,7 +1347,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>58</v>
@@ -1368,7 +1368,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>58</v>

--- a/VERİ_İNCELEME.xlsx
+++ b/VERİ_İNCELEME.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qwert\OneDrive\Masaüstü\PROJECT4_GITHUB\Team2Project-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3DA837-4CFE-419E-BF9B-61AC77A0B346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3EFA50-F881-49C8-AFF0-026F0A3FE2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE9A150-39FC-4ECD-9811-5BE655C855DC}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/VERİ_İNCELEME.xlsx
+++ b/VERİ_İNCELEME.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qwert\OneDrive\Masaüstü\PROJECT4_GITHUB\Team2Project-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3EFA50-F881-49C8-AFF0-026F0A3FE2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89503BC-A895-4964-8B48-3C19418A125A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE9A150-39FC-4ECD-9811-5BE655C855DC}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1347,7 +1347,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>58</v>
@@ -1368,7 +1368,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>58</v>

--- a/VERİ_İNCELEME.xlsx
+++ b/VERİ_İNCELEME.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qwert\OneDrive\Masaüstü\PROJECT4_GITHUB\Team2Project-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89503BC-A895-4964-8B48-3C19418A125A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7862DE56-75DD-4FF4-BF95-95EC29FC9622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,13 +438,38 @@
       <family val="3"/>
       <charset val="162"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -474,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -501,12 +526,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -783,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE9A150-39FC-4ECD-9811-5BE655C855DC}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -848,7 +893,7 @@
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="3" t="s">
         <v>58</v>
       </c>
@@ -866,7 +911,7 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -887,7 +932,7 @@
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -908,7 +953,7 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3"/>
@@ -995,7 +1040,7 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="3" t="s">
         <v>58</v>
       </c>
@@ -1013,7 +1058,7 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="3"/>
@@ -1032,7 +1077,7 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3"/>
@@ -1097,10 +1142,10 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="3" t="s">
         <v>58</v>
       </c>
@@ -1207,7 +1252,7 @@
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="3" t="s">
         <v>59</v>
       </c>
@@ -1308,7 +1353,7 @@
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="3" t="s">
         <v>58</v>
       </c>
@@ -1430,7 +1475,7 @@
       <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="3" t="s">
         <v>59</v>
       </c>
@@ -1597,7 +1642,7 @@
       <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="3"/>
@@ -1637,7 +1682,7 @@
       <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C41" s="3"/>
@@ -1679,7 +1724,7 @@
       <c r="A43" s="4">
         <v>41</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C43" s="3"/>
@@ -1746,7 +1791,7 @@
       <c r="A46" s="4">
         <v>44</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C46" s="3"/>
@@ -1768,7 +1813,7 @@
       <c r="B47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="13"/>
       <c r="D47" s="3" t="s">
         <v>58</v>
       </c>
@@ -1786,7 +1831,7 @@
       <c r="A48" s="4">
         <v>46</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C48" s="3"/>
@@ -1805,7 +1850,7 @@
       <c r="A49" s="4">
         <v>47</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C49" s="3"/>
@@ -1826,7 +1871,7 @@
       <c r="A50" s="4">
         <v>48</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C50" s="3"/>

--- a/VERİ_İNCELEME.xlsx
+++ b/VERİ_İNCELEME.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qwert\OneDrive\Masaüstü\PROJECT4_GITHUB\Team2Project-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7862DE56-75DD-4FF4-BF95-95EC29FC9622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463968C9-B683-4D3D-8833-0DDF04164BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,15 +517,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -540,6 +531,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE9A150-39FC-4ECD-9811-5BE655C855DC}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -850,12 +850,12 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -893,7 +893,7 @@
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="3" t="s">
         <v>58</v>
       </c>
@@ -911,7 +911,7 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -932,7 +932,7 @@
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -953,7 +953,7 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3"/>
@@ -1040,7 +1040,7 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="3" t="s">
         <v>58</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="3"/>
@@ -1077,7 +1077,7 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3"/>
@@ -1142,10 +1142,10 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="3" t="s">
         <v>58</v>
       </c>
@@ -1252,7 +1252,7 @@
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="3" t="s">
         <v>59</v>
       </c>
@@ -1292,11 +1292,11 @@
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1353,7 +1353,7 @@
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="12"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="3" t="s">
         <v>58</v>
       </c>
@@ -1372,11 +1372,11 @@
       <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1475,7 +1475,7 @@
       <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="12"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="3" t="s">
         <v>59</v>
       </c>
@@ -1642,7 +1642,7 @@
       <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="3"/>
@@ -1682,7 +1682,7 @@
       <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C41" s="3"/>
@@ -1724,7 +1724,7 @@
       <c r="A43" s="4">
         <v>41</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C43" s="3"/>
@@ -1791,7 +1791,7 @@
       <c r="A46" s="4">
         <v>44</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C46" s="3"/>
@@ -1813,7 +1813,7 @@
       <c r="B47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="13"/>
+      <c r="C47" s="10"/>
       <c r="D47" s="3" t="s">
         <v>58</v>
       </c>
@@ -1831,7 +1831,7 @@
       <c r="A48" s="4">
         <v>46</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C48" s="3"/>
@@ -1850,7 +1850,7 @@
       <c r="A49" s="4">
         <v>47</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C49" s="3"/>
@@ -1871,7 +1871,7 @@
       <c r="A50" s="4">
         <v>48</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C50" s="3"/>
@@ -1929,54 +1929,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>

--- a/VERİ_İNCELEME.xlsx
+++ b/VERİ_İNCELEME.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qwert\OneDrive\Masaüstü\PROJECT4_GITHUB\Team2Project-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463968C9-B683-4D3D-8833-0DDF04164BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B29950-87C3-4279-A2E7-62355BEA2977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="125">
   <si>
     <t>location</t>
   </si>
@@ -414,7 +414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +447,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -499,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -526,9 +533,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -540,6 +544,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,7 +842,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -850,12 +863,12 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1040,7 +1053,7 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="3" t="s">
         <v>58</v>
       </c>
@@ -1145,7 +1158,9 @@
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="D15" s="3" t="s">
         <v>58</v>
       </c>
@@ -1292,11 +1307,11 @@
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1353,7 +1368,7 @@
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="3" t="s">
         <v>58</v>
       </c>
@@ -1372,11 +1387,11 @@
       <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1475,7 +1490,9 @@
       <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="D31" s="3" t="s">
         <v>59</v>
       </c>
@@ -1642,7 +1659,7 @@
       <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="3"/>
@@ -1813,7 +1830,7 @@
       <c r="B47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="10"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="3" t="s">
         <v>58</v>
       </c>
@@ -1831,7 +1848,7 @@
       <c r="A48" s="4">
         <v>46</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C48" s="3"/>
@@ -1929,54 +1946,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>

--- a/VERİ_İNCELEME.xlsx
+++ b/VERİ_İNCELEME.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qwert\OneDrive\Masaüstü\PROJECT4_GITHUB\Team2Project-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B29950-87C3-4279-A2E7-62355BEA2977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B957D9CE-6B63-40A9-A9C2-C2230463323E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sayfa2" sheetId="2" r:id="rId1"/>
     <sheet name="Sayfa1" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sayfa2!$A$2:$I$2</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="125">
   <si>
     <t>location</t>
   </si>
@@ -414,7 +417,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,13 +440,6 @@
       <name val="Consolas"/>
       <family val="3"/>
       <charset val="162"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -506,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -527,13 +523,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -544,15 +543,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE9A150-39FC-4ECD-9811-5BE655C855DC}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -863,12 +853,12 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -906,7 +896,7 @@
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="3" t="s">
         <v>58</v>
       </c>
@@ -924,7 +914,7 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -945,7 +935,7 @@
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -969,7 +959,9 @@
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>58</v>
       </c>
@@ -987,7 +979,7 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1008,7 +1000,7 @@
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1029,7 +1021,7 @@
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1050,10 +1042,10 @@
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="3" t="s">
         <v>58</v>
       </c>
@@ -1074,7 +1066,9 @@
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D11" s="3" t="s">
         <v>58</v>
       </c>
@@ -1093,7 +1087,9 @@
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>58</v>
       </c>
@@ -1111,7 +1107,7 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1134,7 +1130,7 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1155,10 +1151,10 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1176,7 +1172,7 @@
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1197,7 +1193,7 @@
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1220,7 +1216,7 @@
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1243,7 +1239,7 @@
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1264,10 +1260,10 @@
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="3" t="s">
         <v>59</v>
       </c>
@@ -1283,7 +1279,7 @@
       <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1304,14 +1300,14 @@
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1323,7 +1319,7 @@
       <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="3"/>
@@ -1342,7 +1338,7 @@
       <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1365,10 +1361,10 @@
       <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="3" t="s">
         <v>58</v>
       </c>
@@ -1384,14 +1380,14 @@
       <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1403,7 +1399,7 @@
       <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1424,7 +1420,7 @@
       <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -1445,7 +1441,7 @@
       <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1466,7 +1462,7 @@
       <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1487,10 +1483,10 @@
       <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -1510,7 +1506,7 @@
       <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="3"/>
@@ -1531,7 +1527,7 @@
       <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -1552,7 +1548,7 @@
       <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -1575,7 +1571,7 @@
       <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -1596,7 +1592,7 @@
       <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -1617,11 +1613,11 @@
       <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>58</v>
@@ -1638,7 +1634,7 @@
       <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -1659,10 +1655,12 @@
       <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D39" s="3" t="s">
         <v>59</v>
       </c>
@@ -1678,7 +1676,7 @@
       <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -1702,7 +1700,9 @@
       <c r="B41" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D41" s="3" t="s">
         <v>58</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -1744,7 +1744,9 @@
       <c r="B43" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D43" s="3" t="s">
         <v>58</v>
       </c>
@@ -1762,7 +1764,7 @@
       <c r="A44" s="4">
         <v>42</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -1785,7 +1787,7 @@
       <c r="A45" s="4">
         <v>43</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -1811,7 +1813,9 @@
       <c r="B46" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D46" s="3" t="s">
         <v>58</v>
       </c>
@@ -1827,10 +1831,10 @@
       <c r="A47" s="4">
         <v>45</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="16"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="3" t="s">
         <v>58</v>
       </c>
@@ -1848,10 +1852,12 @@
       <c r="A48" s="4">
         <v>46</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D48" s="3" t="s">
         <v>58</v>
       </c>
@@ -1870,7 +1876,9 @@
       <c r="B49" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D49" s="3" t="s">
         <v>58</v>
       </c>
@@ -1891,7 +1899,9 @@
       <c r="B50" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D50" s="3" t="s">
         <v>58</v>
       </c>
@@ -1922,6 +1932,7 @@
       <c r="B56" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:I2" xr:uid="{1CE9A150-39FC-4ECD-9811-5BE655C855DC}"/>
   <mergeCells count="3">
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="C22:E22"/>
@@ -1946,54 +1957,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
